--- a/Data/EC/NIT-8904004428.xlsx
+++ b/Data/EC/NIT-8904004428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14E0DAC-E12C-406D-8AA0-770CE31AFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31241A3F-B97C-46DC-8C57-7DB6B4489A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0897C8A-1263-4FD0-BBDB-16B33C681901}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{910A6D29-9164-4A02-B6F6-105795F0ED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="115">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,268 +65,289 @@
     <t>CC</t>
   </si>
   <si>
+    <t>78716995</t>
+  </si>
+  <si>
+    <t>JOHN VICENTE CHANTAK ARROYO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1050956854</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES EBRAT NARVAEZ</t>
+  </si>
+  <si>
+    <t>1049536563</t>
+  </si>
+  <si>
+    <t>CARLOS GABRIEL GARCIA OLIVO</t>
+  </si>
+  <si>
+    <t>1044923415</t>
+  </si>
+  <si>
+    <t>DEILER ENRIQUE BORJA CANTILLO</t>
+  </si>
+  <si>
+    <t>1047433707</t>
+  </si>
+  <si>
+    <t>JAIME LUIS LAZARO GARCIA</t>
+  </si>
+  <si>
     <t>9103533</t>
   </si>
   <si>
     <t>ANTONIO CARLOS DE ORO YEPES</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>78716995</t>
-  </si>
-  <si>
-    <t>JOHN VICENTE CHANTAK ARROYO</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
     <t>1047496332</t>
   </si>
   <si>
     <t>JOSE CARLOS SAYAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1049536563</t>
-  </si>
-  <si>
-    <t>CARLOS GABRIEL GARCIA OLIVO</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -740,7 +761,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B40C81-F26A-4EA0-1FDF-0CCCF955B17D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F254A4-6192-0583-0D96-9DB54B48ACD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,8 +1112,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4D0A4C-0432-4855-A70C-682BA7B0E554}">
-  <dimension ref="B2:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE316EA-429D-490A-B6C6-2455AF40A782}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1103,7 +1124,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1116,7 +1137,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1161,7 +1182,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1193,12 +1214,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3440262</v>
+        <v>3638507</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1209,17 +1230,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1246,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1269,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1292,10 +1313,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1315,10 +1336,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1338,10 +1359,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1352,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1375,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1398,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1421,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1444,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1467,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1490,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1513,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1536,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1559,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1582,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1605,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1628,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1651,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1674,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1697,13 +1718,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1720,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1743,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1766,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1789,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1812,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1835,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1858,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1881,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1904,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1927,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1950,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1973,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1996,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2019,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2042,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2065,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2088,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2111,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2134,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2157,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2180,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2203,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2226,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2249,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2272,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2295,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2318,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2341,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2364,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2387,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2410,13 +2431,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2433,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2456,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2479,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2502,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2525,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2548,13 +2569,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2571,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2594,13 +2615,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2617,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2640,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2663,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2686,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2709,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2732,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2755,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2778,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2801,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2824,13 +2845,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2847,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2870,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>45066</v>
+        <v>33125</v>
       </c>
       <c r="G86" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2893,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2916,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2939,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="F89" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G89" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2962,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2985,19 +3006,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3008,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3031,19 +3052,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F93" s="18">
-        <v>33125</v>
+        <v>10534</v>
       </c>
       <c r="G93" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3054,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3077,19 +3098,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3100,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3123,13 +3144,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="E97" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F97" s="18">
         <v>56940</v>
@@ -3146,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="F98" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3169,19 +3190,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F99" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G99" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3192,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F100" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G100" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3215,19 +3236,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F101" s="18">
-        <v>56940</v>
+        <v>10534</v>
       </c>
       <c r="G101" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3238,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F102" s="18">
-        <v>56940</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3261,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3284,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F104" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3307,19 +3328,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F105" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3330,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F106" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3353,19 +3374,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F107" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3376,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="F108" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G108" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3399,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3418,56 +3439,194 @@
       <c r="J109" s="20"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F110" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G110" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G112" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G113" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="H115" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="H116" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="24">
+        <v>45066</v>
+      </c>
+      <c r="G116" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904004428.xlsx
+++ b/Data/EC/NIT-8904004428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31241A3F-B97C-46DC-8C57-7DB6B4489A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A31AA7-A603-4D5D-AD78-AA051474614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{910A6D29-9164-4A02-B6F6-105795F0ED6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F04493ED-48A3-4137-BDA1-6C93F9DB8261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="110">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,289 +65,274 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9103533</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS DE ORO YEPES</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>78716995</t>
   </si>
   <si>
     <t>JOHN VICENTE CHANTAK ARROYO</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1047496332</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS SAYAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1049536563</t>
+  </si>
+  <si>
+    <t>CARLOS GABRIEL GARCIA OLIVO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1050956854</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES EBRAT NARVAEZ</t>
-  </si>
-  <si>
-    <t>1049536563</t>
-  </si>
-  <si>
-    <t>CARLOS GABRIEL GARCIA OLIVO</t>
-  </si>
-  <si>
-    <t>1044923415</t>
-  </si>
-  <si>
-    <t>DEILER ENRIQUE BORJA CANTILLO</t>
-  </si>
-  <si>
-    <t>1047433707</t>
-  </si>
-  <si>
-    <t>JAIME LUIS LAZARO GARCIA</t>
-  </si>
-  <si>
-    <t>9103533</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS DE ORO YEPES</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1047496332</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS SAYAS MARTINEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -446,7 +431,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -459,9 +446,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -661,23 +646,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,10 +690,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,7 +746,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F254A4-6192-0583-0D96-9DB54B48ACD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5BD8CF-4405-134F-8F79-ADBE02145046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE316EA-429D-490A-B6C6-2455AF40A782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD635095-046E-4036-AA9B-2CAE37D6050B}">
   <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1124,7 +1109,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1137,7 +1122,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1182,7 +1167,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1214,12 +1199,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3638507</v>
+        <v>3724392</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1230,17 +1215,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1267,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1290,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1313,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1336,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1359,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1373,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1396,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1419,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1442,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1465,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1488,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1511,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1534,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1557,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1580,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1603,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1626,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1649,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1672,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1695,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1718,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1741,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1764,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1787,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1810,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1833,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1856,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1879,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1902,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1925,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1948,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1971,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1994,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -2017,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2040,13 +2025,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2063,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2086,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2109,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2132,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2155,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2178,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2201,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2224,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2247,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2270,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2293,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2316,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2339,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2362,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2385,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2408,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2431,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2454,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2477,13 +2462,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2500,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2523,13 +2508,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2546,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2569,13 +2554,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2592,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2615,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2638,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2661,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2684,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2707,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2730,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2753,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2776,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2799,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2822,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2845,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2868,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2891,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2914,19 +2899,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
-        <v>33125</v>
+        <v>45066</v>
       </c>
       <c r="G87" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2937,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2960,19 +2945,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2983,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -3006,19 +2991,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3029,13 +3014,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -3052,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F93" s="18">
-        <v>10534</v>
+        <v>52000</v>
       </c>
       <c r="G93" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3075,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3098,19 +3083,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F95" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3121,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F96" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G96" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3144,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F97" s="18">
         <v>56940</v>
@@ -3167,19 +3152,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F98" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3190,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="F99" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G99" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3213,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="E100" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F100" s="18">
-        <v>35112</v>
+        <v>56940</v>
       </c>
       <c r="G100" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3236,19 +3221,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F101" s="18">
-        <v>10534</v>
+        <v>52000</v>
       </c>
       <c r="G101" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3259,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3282,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>56940</v>
       </c>
       <c r="G103" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3305,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G104" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3328,19 +3313,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G105" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3351,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3374,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F107" s="18">
         <v>52000</v>
@@ -3397,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F108" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3420,19 +3405,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F109" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G109" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3443,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F110" s="18">
         <v>52000</v>
@@ -3466,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3489,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F112" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G112" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3512,13 +3497,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F113" s="18">
         <v>52000</v>
@@ -3535,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F114" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3558,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F115" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G115" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3581,16 +3566,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F116" s="24">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G116" s="24">
         <v>1300000</v>
@@ -3601,22 +3586,22 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C121" s="32"/>
       <c r="H121" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C122" s="32"/>
       <c r="H122" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>

--- a/Data/EC/NIT-8904004428.xlsx
+++ b/Data/EC/NIT-8904004428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A31AA7-A603-4D5D-AD78-AA051474614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CC4CFB-62F0-4E82-A9B4-B80A889327FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F04493ED-48A3-4137-BDA1-6C93F9DB8261}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0B817B2-4348-4CF8-A8D6-D80A91CE7BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="111">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -431,9 +434,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -446,7 +447,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -640,29 +643,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,19 +684,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,7 +755,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5BD8CF-4405-134F-8F79-ADBE02145046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8CFA22-CF1C-7692-9085-7B3F4CAF63A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,8 +1106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD635095-046E-4036-AA9B-2CAE37D6050B}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C619D977-C197-45C3-90C2-1B6417BB741B}">
+  <dimension ref="B2:J125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1120,57 +1129,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8904004428</v>
       </c>
@@ -1199,12 +1208,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>3724392</v>
+        <v>3866457</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1215,17 +1224,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1252,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1271,18 +1280,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1294,18 +1303,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>31249</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1317,18 +1326,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>31249</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>877803</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1340,18 +1349,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>31249</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>877803</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1363,18 +1372,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1386,18 +1395,18 @@
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1409,18 +1418,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1432,18 +1441,18 @@
       <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1455,18 +1464,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1478,18 +1487,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1501,18 +1510,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1524,18 +1533,18 @@
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1547,18 +1556,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1570,18 +1579,18 @@
       <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1593,18 +1602,18 @@
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1616,18 +1625,18 @@
       <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G31" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G31" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1639,18 +1648,18 @@
       <c r="D32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1662,18 +1671,18 @@
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G33" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1685,18 +1694,18 @@
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G34" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G34" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1708,18 +1717,18 @@
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G35" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G35" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1731,18 +1740,18 @@
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G36" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G36" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1754,18 +1763,18 @@
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G37" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G37" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1777,18 +1786,18 @@
       <c r="D38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G38" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G38" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1800,18 +1809,18 @@
       <c r="D39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G39" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G39" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1823,18 +1832,18 @@
       <c r="D40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G40" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G40" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1846,18 +1855,18 @@
       <c r="D41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G41" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G41" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1869,18 +1878,18 @@
       <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G42" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G42" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1892,18 +1901,18 @@
       <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G43" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G43" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1915,18 +1924,18 @@
       <c r="D44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G44" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G44" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1938,18 +1947,18 @@
       <c r="D45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G45" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G45" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1961,18 +1970,18 @@
       <c r="D46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G46" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G46" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1984,18 +1993,18 @@
       <c r="D47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G47" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G47" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2007,18 +2016,18 @@
       <c r="D48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G48" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G48" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2030,18 +2039,18 @@
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G49" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G49" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2053,18 +2062,18 @@
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G50" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2076,18 +2085,18 @@
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G51" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2099,18 +2108,18 @@
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G52" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G52" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2122,18 +2131,18 @@
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G53" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2145,18 +2154,18 @@
       <c r="D54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G54" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G54" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2168,18 +2177,18 @@
       <c r="D55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G55" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G55" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2191,18 +2200,18 @@
       <c r="D56" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G56" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G56" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2214,18 +2223,18 @@
       <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G57" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G57" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2237,18 +2246,18 @@
       <c r="D58" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G58" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G58" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2260,18 +2269,18 @@
       <c r="D59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G59" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2283,18 +2292,18 @@
       <c r="D60" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G60" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G60" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2306,18 +2315,18 @@
       <c r="D61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G61" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G61" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2329,18 +2338,18 @@
       <c r="D62" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G62" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G62" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2352,18 +2361,18 @@
       <c r="D63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G63" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G63" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2375,18 +2384,18 @@
       <c r="D64" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G64" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G64" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2398,18 +2407,18 @@
       <c r="D65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G65" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G65" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2421,18 +2430,18 @@
       <c r="D66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G66" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G66" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2444,18 +2453,18 @@
       <c r="D67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G67" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G67" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2467,18 +2476,18 @@
       <c r="D68" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G68" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G68" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2490,18 +2499,18 @@
       <c r="D69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G69" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G69" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2513,18 +2522,18 @@
       <c r="D70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G70" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G70" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2536,18 +2545,18 @@
       <c r="D71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G71" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G71" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2559,18 +2568,18 @@
       <c r="D72" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G72" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G72" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2582,18 +2591,18 @@
       <c r="D73" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G73" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G73" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2605,18 +2614,18 @@
       <c r="D74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G74" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G74" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2628,18 +2637,18 @@
       <c r="D75" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G75" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G75" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2651,18 +2660,18 @@
       <c r="D76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G76" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G76" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2674,18 +2683,18 @@
       <c r="D77" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G77" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G77" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2697,18 +2706,18 @@
       <c r="D78" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F78" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G78" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G78" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2720,18 +2729,18 @@
       <c r="D79" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F79" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G79" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G79" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2743,18 +2752,18 @@
       <c r="D80" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G80" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G80" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2766,18 +2775,18 @@
       <c r="D81" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F81" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G81" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G81" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2789,18 +2798,18 @@
       <c r="D82" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G82" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G82" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2812,18 +2821,18 @@
       <c r="D83" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G83" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G83" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2835,18 +2844,18 @@
       <c r="D84" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F84" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G84" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2858,18 +2867,18 @@
       <c r="D85" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G85" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2881,18 +2890,18 @@
       <c r="D86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2904,18 +2913,18 @@
       <c r="D87" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>45066</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1300000</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2927,18 +2936,18 @@
       <c r="D88" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G88" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G88" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2950,18 +2959,18 @@
       <c r="D89" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>52000</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>1300000</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2973,18 +2982,18 @@
       <c r="D90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F90" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G90" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2996,18 +3005,18 @@
       <c r="D91" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>52000</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1300000</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3019,18 +3028,18 @@
       <c r="D92" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F92" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G92" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3042,18 +3051,18 @@
       <c r="D93" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>52000</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>1300000</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3065,18 +3074,18 @@
       <c r="D94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F94" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G94" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G94" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3088,18 +3097,18 @@
       <c r="D95" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="19">
         <v>52000</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="19">
         <v>1300000</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3111,18 +3120,18 @@
       <c r="D96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F96" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G96" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G96" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3134,18 +3143,18 @@
       <c r="D97" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>56940</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1423500</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3157,18 +3166,18 @@
       <c r="D98" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>52000</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>1300000</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3180,18 +3189,18 @@
       <c r="D99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F99" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G99" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G99" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3203,18 +3212,18 @@
       <c r="D100" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="19">
         <v>56940</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="19">
         <v>1423500</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3226,18 +3235,18 @@
       <c r="D101" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>52000</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>1300000</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3249,18 +3258,18 @@
       <c r="D102" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F102" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G102" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G102" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3272,18 +3281,18 @@
       <c r="D103" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="19">
         <v>56940</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="19">
         <v>1423500</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3295,18 +3304,18 @@
       <c r="D104" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>52000</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="19">
         <v>1300000</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3318,18 +3327,18 @@
       <c r="D105" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G105" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G105" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3341,18 +3350,18 @@
       <c r="D106" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="19">
         <v>56940</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="19">
         <v>1423500</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3364,18 +3373,18 @@
       <c r="D107" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>52000</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>1300000</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3387,18 +3396,18 @@
       <c r="D108" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F108" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G108" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G108" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3410,18 +3419,18 @@
       <c r="D109" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>56940</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>1423500</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3433,18 +3442,18 @@
       <c r="D110" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>52000</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="19">
         <v>1300000</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3456,18 +3465,18 @@
       <c r="D111" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F111" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G111" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G111" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3479,18 +3488,18 @@
       <c r="D112" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="19">
         <v>56940</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="19">
         <v>1423500</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3502,18 +3511,18 @@
       <c r="D113" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="19">
         <v>52000</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="19">
         <v>1300000</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3525,18 +3534,18 @@
       <c r="D114" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F114" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G114" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G114" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3548,70 +3557,139 @@
       <c r="D115" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>56940</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="19">
         <v>1423500</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F116" s="24">
+      <c r="F116" s="19">
         <v>52000</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G116" s="19">
         <v>1300000</v>
       </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G117" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F119" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G119" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="34"/>
+      <c r="H124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="C125" s="34"/>
+      <c r="H125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="H124:J124"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
